--- a/Progettazione/Analisi/testCase.xlsx
+++ b/Progettazione/Analisi/testCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MPT\Progettazione\Analisi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MPT\Progettazione\Analisi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -893,6 +893,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -902,12 +929,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -920,6 +941,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -929,29 +992,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -961,63 +1018,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1301,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89:H93"/>
+    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L238" sqref="L238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1347,58 +1347,58 @@
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
@@ -1437,14 +1437,14 @@
       <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
     </row>
     <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="17"/>
@@ -1489,76 +1489,76 @@
       <c r="B16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="43"/>
     </row>
     <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="46"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="47"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
@@ -1586,14 +1586,14 @@
       <c r="B25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
@@ -1638,85 +1638,85 @@
       <c r="B29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="8"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="42"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="13"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="43"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="43"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="13"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="8"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="45"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="49"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="13"/>
@@ -1731,38 +1731,38 @@
     </row>
     <row r="38" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13"/>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="47"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="13"/>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="47"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
     </row>
     <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="42"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="63"/>
     </row>
     <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="17"/>
@@ -1807,58 +1807,58 @@
       <c r="B44" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="42"/>
     </row>
     <row r="45" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="8"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="43"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="49"/>
     </row>
     <row r="49" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
@@ -1875,14 +1875,14 @@
       <c r="B50" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="42"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="63"/>
     </row>
     <row r="51" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="17"/>
@@ -1927,23 +1927,23 @@
       <c r="B54" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="33"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="8"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="39"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="46"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="13" t="s">
@@ -1995,14 +1995,14 @@
       <c r="B60" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="45"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="49"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="13"/>
@@ -2041,14 +2041,14 @@
       <c r="B64" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="42"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="63"/>
     </row>
     <row r="65" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="17"/>
@@ -2093,85 +2093,85 @@
       <c r="B68" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="33"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="42"/>
     </row>
     <row r="69" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="8"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="39"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="46"/>
     </row>
     <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="33"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="42"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="13"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="36"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="43"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="13"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="36"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="43"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="13"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="36"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="43"/>
     </row>
     <row r="74" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="8"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="39"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="46"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="45"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="49"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="13"/>
@@ -2243,14 +2243,14 @@
       <c r="B82" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="40" t="s">
+      <c r="C82" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="42"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="63"/>
     </row>
     <row r="83" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="17"/>
@@ -2295,94 +2295,94 @@
       <c r="B86" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="31" t="s">
+      <c r="C86" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="33"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="13"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="36"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="43"/>
     </row>
     <row r="88" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B88" s="8"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="39"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="46"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="31" t="s">
+      <c r="C89" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="33"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="42"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="13"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="36"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="43"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="13"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="36"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="43"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="13"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="36"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="43"/>
     </row>
     <row r="93" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B93" s="8"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="39"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="46"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="43" t="s">
+      <c r="C94" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44"/>
-      <c r="H94" s="45"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="49"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="13"/>
@@ -2465,14 +2465,14 @@
       <c r="B102" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="40" t="s">
+      <c r="C102" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="42"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="63"/>
     </row>
     <row r="103" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B103" s="17"/>
@@ -2517,76 +2517,76 @@
       <c r="B106" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C106" s="31" t="s">
+      <c r="C106" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="33"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="42"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B107" s="13"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="35"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="35"/>
-      <c r="H107" s="36"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="43"/>
     </row>
     <row r="108" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="8"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="38"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="38"/>
-      <c r="H108" s="39"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="45"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="46"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B109" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C109" s="31" t="s">
+      <c r="C109" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D109" s="32"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="32"/>
-      <c r="G109" s="32"/>
-      <c r="H109" s="33"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="42"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" s="13"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="36"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="43"/>
     </row>
     <row r="111" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B111" s="8"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="39"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="46"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B112" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="43" t="s">
+      <c r="C112" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D112" s="44"/>
-      <c r="E112" s="44"/>
-      <c r="F112" s="44"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="45"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="49"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" s="13"/>
@@ -2636,14 +2636,14 @@
       <c r="B117" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="40" t="s">
+      <c r="C117" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D117" s="41"/>
-      <c r="E117" s="41"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="41"/>
-      <c r="H117" s="42"/>
+      <c r="D117" s="62"/>
+      <c r="E117" s="62"/>
+      <c r="F117" s="62"/>
+      <c r="G117" s="62"/>
+      <c r="H117" s="63"/>
     </row>
     <row r="118" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="17"/>
@@ -2688,49 +2688,49 @@
       <c r="B121" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C121" s="31" t="s">
+      <c r="C121" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="D121" s="32"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="32"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="33"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="42"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B122" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="31" t="s">
+      <c r="C122" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="33"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="41"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="42"/>
     </row>
     <row r="123" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B123" s="8"/>
-      <c r="C123" s="37"/>
-      <c r="D123" s="38"/>
-      <c r="E123" s="38"/>
-      <c r="F123" s="38"/>
-      <c r="G123" s="38"/>
-      <c r="H123" s="39"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="45"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="46"/>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B124" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="31" t="s">
+      <c r="C124" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="D124" s="32"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="32"/>
-      <c r="G124" s="32"/>
-      <c r="H124" s="46"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="59"/>
     </row>
     <row r="125" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B125" s="8"/>
@@ -2747,14 +2747,14 @@
       <c r="B126" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="40" t="s">
+      <c r="C126" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D126" s="41"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="41"/>
-      <c r="H126" s="42"/>
+      <c r="D126" s="62"/>
+      <c r="E126" s="62"/>
+      <c r="F126" s="62"/>
+      <c r="G126" s="62"/>
+      <c r="H126" s="63"/>
     </row>
     <row r="127" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B127" s="17"/>
@@ -2799,205 +2799,205 @@
       <c r="B130" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C130" s="31" t="s">
+      <c r="C130" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="32"/>
-      <c r="H130" s="33"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="41"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="42"/>
     </row>
     <row r="131" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B131" s="8"/>
-      <c r="C131" s="37"/>
-      <c r="D131" s="38"/>
-      <c r="E131" s="38"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="39"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="45"/>
+      <c r="E131" s="45"/>
+      <c r="F131" s="45"/>
+      <c r="G131" s="45"/>
+      <c r="H131" s="46"/>
     </row>
     <row r="132" spans="2:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C132" s="31" t="s">
+      <c r="C132" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="D132" s="32"/>
-      <c r="E132" s="32"/>
-      <c r="F132" s="32"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="33"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="41"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="42"/>
     </row>
     <row r="133" spans="2:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="13"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="35"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="36"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="43"/>
     </row>
     <row r="134" spans="2:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="13"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="35"/>
-      <c r="E134" s="35"/>
-      <c r="F134" s="35"/>
-      <c r="G134" s="35"/>
-      <c r="H134" s="36"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="43"/>
     </row>
     <row r="135" spans="2:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="13"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="35"/>
-      <c r="F135" s="35"/>
-      <c r="G135" s="35"/>
-      <c r="H135" s="36"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="43"/>
     </row>
     <row r="136" spans="2:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="13"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="35"/>
-      <c r="F136" s="35"/>
-      <c r="G136" s="35"/>
-      <c r="H136" s="36"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32"/>
+      <c r="H136" s="43"/>
     </row>
     <row r="137" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B137" s="13"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="35"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="35"/>
-      <c r="H137" s="36"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="43"/>
     </row>
     <row r="138" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B138" s="13"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="35"/>
-      <c r="H138" s="36"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="32"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="43"/>
     </row>
     <row r="139" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B139" s="8"/>
-      <c r="C139" s="37"/>
-      <c r="D139" s="38"/>
-      <c r="E139" s="38"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="38"/>
-      <c r="H139" s="39"/>
+      <c r="C139" s="44"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="45"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="46"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B140" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C140" s="43" t="s">
+      <c r="C140" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="D140" s="44"/>
-      <c r="E140" s="44"/>
-      <c r="F140" s="44"/>
-      <c r="G140" s="44"/>
-      <c r="H140" s="45"/>
+      <c r="D140" s="48"/>
+      <c r="E140" s="48"/>
+      <c r="F140" s="48"/>
+      <c r="G140" s="48"/>
+      <c r="H140" s="49"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B141" s="13"/>
-      <c r="C141" s="34" t="s">
+      <c r="C141" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D141" s="35"/>
-      <c r="E141" s="35"/>
-      <c r="F141" s="35"/>
-      <c r="G141" s="35"/>
-      <c r="H141" s="47"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="33"/>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B142" s="13"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="35"/>
-      <c r="F142" s="35"/>
-      <c r="G142" s="35"/>
-      <c r="H142" s="47"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="33"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B143" s="13"/>
-      <c r="C143" s="34" t="s">
+      <c r="C143" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D143" s="35"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="35"/>
-      <c r="G143" s="35"/>
-      <c r="H143" s="47"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="33"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B144" s="13"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="35"/>
-      <c r="E144" s="35"/>
-      <c r="F144" s="35"/>
-      <c r="G144" s="35"/>
-      <c r="H144" s="47"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="33"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B145" s="13"/>
-      <c r="C145" s="48" t="s">
+      <c r="C145" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D145" s="49"/>
-      <c r="E145" s="49"/>
-      <c r="F145" s="49"/>
-      <c r="G145" s="49"/>
-      <c r="H145" s="50"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="35"/>
+      <c r="F145" s="35"/>
+      <c r="G145" s="35"/>
+      <c r="H145" s="36"/>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B146" s="13"/>
-      <c r="C146" s="48"/>
-      <c r="D146" s="49"/>
-      <c r="E146" s="49"/>
-      <c r="F146" s="49"/>
-      <c r="G146" s="49"/>
-      <c r="H146" s="50"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="35"/>
+      <c r="F146" s="35"/>
+      <c r="G146" s="35"/>
+      <c r="H146" s="36"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B147" s="13"/>
-      <c r="C147" s="48" t="s">
+      <c r="C147" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D147" s="49"/>
-      <c r="E147" s="49"/>
-      <c r="F147" s="49"/>
-      <c r="G147" s="49"/>
-      <c r="H147" s="50"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="35"/>
+      <c r="F147" s="35"/>
+      <c r="G147" s="35"/>
+      <c r="H147" s="36"/>
     </row>
     <row r="148" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B148" s="8"/>
-      <c r="C148" s="51"/>
-      <c r="D148" s="52"/>
-      <c r="E148" s="52"/>
-      <c r="F148" s="52"/>
-      <c r="G148" s="52"/>
-      <c r="H148" s="53"/>
+      <c r="C148" s="70"/>
+      <c r="D148" s="71"/>
+      <c r="E148" s="71"/>
+      <c r="F148" s="71"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="72"/>
     </row>
     <row r="149" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B149" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C149" s="40" t="s">
+      <c r="C149" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="D149" s="41"/>
-      <c r="E149" s="41"/>
-      <c r="F149" s="41"/>
-      <c r="G149" s="41"/>
-      <c r="H149" s="42"/>
+      <c r="D149" s="62"/>
+      <c r="E149" s="62"/>
+      <c r="F149" s="62"/>
+      <c r="G149" s="62"/>
+      <c r="H149" s="63"/>
     </row>
     <row r="150" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B150" s="17"/>
@@ -3042,94 +3042,94 @@
       <c r="B153" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C153" s="31" t="s">
+      <c r="C153" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D153" s="32"/>
-      <c r="E153" s="32"/>
-      <c r="F153" s="32"/>
-      <c r="G153" s="32"/>
-      <c r="H153" s="33"/>
+      <c r="D153" s="41"/>
+      <c r="E153" s="41"/>
+      <c r="F153" s="41"/>
+      <c r="G153" s="41"/>
+      <c r="H153" s="42"/>
     </row>
     <row r="154" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B154" s="8"/>
-      <c r="C154" s="37"/>
-      <c r="D154" s="38"/>
-      <c r="E154" s="38"/>
-      <c r="F154" s="38"/>
-      <c r="G154" s="38"/>
-      <c r="H154" s="39"/>
+      <c r="C154" s="44"/>
+      <c r="D154" s="45"/>
+      <c r="E154" s="45"/>
+      <c r="F154" s="45"/>
+      <c r="G154" s="45"/>
+      <c r="H154" s="46"/>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B155" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C155" s="31" t="s">
+      <c r="C155" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D155" s="32"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="32"/>
-      <c r="G155" s="32"/>
-      <c r="H155" s="33"/>
+      <c r="D155" s="41"/>
+      <c r="E155" s="41"/>
+      <c r="F155" s="41"/>
+      <c r="G155" s="41"/>
+      <c r="H155" s="42"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B156" s="13"/>
-      <c r="C156" s="34"/>
-      <c r="D156" s="35"/>
-      <c r="E156" s="35"/>
-      <c r="F156" s="35"/>
-      <c r="G156" s="35"/>
-      <c r="H156" s="36"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="32"/>
+      <c r="G156" s="32"/>
+      <c r="H156" s="43"/>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B157" s="13"/>
-      <c r="C157" s="34"/>
-      <c r="D157" s="35"/>
-      <c r="E157" s="35"/>
-      <c r="F157" s="35"/>
-      <c r="G157" s="35"/>
-      <c r="H157" s="36"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="32"/>
+      <c r="E157" s="32"/>
+      <c r="F157" s="32"/>
+      <c r="G157" s="32"/>
+      <c r="H157" s="43"/>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B158" s="13"/>
-      <c r="C158" s="34"/>
-      <c r="D158" s="35"/>
-      <c r="E158" s="35"/>
-      <c r="F158" s="35"/>
-      <c r="G158" s="35"/>
-      <c r="H158" s="36"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32"/>
+      <c r="G158" s="32"/>
+      <c r="H158" s="43"/>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B159" s="13"/>
-      <c r="C159" s="34"/>
-      <c r="D159" s="35"/>
-      <c r="E159" s="35"/>
-      <c r="F159" s="35"/>
-      <c r="G159" s="35"/>
-      <c r="H159" s="36"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="32"/>
+      <c r="G159" s="32"/>
+      <c r="H159" s="43"/>
     </row>
     <row r="160" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B160" s="8"/>
-      <c r="C160" s="37"/>
-      <c r="D160" s="38"/>
-      <c r="E160" s="38"/>
-      <c r="F160" s="38"/>
-      <c r="G160" s="38"/>
-      <c r="H160" s="39"/>
+      <c r="C160" s="44"/>
+      <c r="D160" s="45"/>
+      <c r="E160" s="45"/>
+      <c r="F160" s="45"/>
+      <c r="G160" s="45"/>
+      <c r="H160" s="46"/>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B161" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C161" s="43" t="s">
+      <c r="C161" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D161" s="44"/>
-      <c r="E161" s="44"/>
-      <c r="F161" s="44"/>
-      <c r="G161" s="44"/>
-      <c r="H161" s="45"/>
+      <c r="D161" s="48"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="48"/>
+      <c r="G161" s="48"/>
+      <c r="H161" s="49"/>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B162" s="13"/>
@@ -3144,54 +3144,54 @@
     </row>
     <row r="163" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="13"/>
-      <c r="C163" s="34" t="s">
+      <c r="C163" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D163" s="35"/>
-      <c r="E163" s="35"/>
-      <c r="F163" s="35"/>
-      <c r="G163" s="35"/>
-      <c r="H163" s="47"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="32"/>
+      <c r="F163" s="32"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="33"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B164" s="13"/>
-      <c r="C164" s="34"/>
-      <c r="D164" s="35"/>
-      <c r="E164" s="35"/>
-      <c r="F164" s="35"/>
-      <c r="G164" s="35"/>
-      <c r="H164" s="47"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="32"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="33"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B165" s="13"/>
-      <c r="C165" s="48" t="s">
+      <c r="C165" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D165" s="49"/>
-      <c r="E165" s="49"/>
-      <c r="F165" s="49"/>
-      <c r="G165" s="49"/>
-      <c r="H165" s="50"/>
+      <c r="D165" s="35"/>
+      <c r="E165" s="35"/>
+      <c r="F165" s="35"/>
+      <c r="G165" s="35"/>
+      <c r="H165" s="36"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B166" s="13"/>
-      <c r="C166" s="48" t="s">
+      <c r="C166" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D166" s="49"/>
-      <c r="E166" s="49"/>
-      <c r="F166" s="49"/>
-      <c r="G166" s="49"/>
-      <c r="H166" s="50"/>
+      <c r="D166" s="35"/>
+      <c r="E166" s="35"/>
+      <c r="F166" s="35"/>
+      <c r="G166" s="35"/>
+      <c r="H166" s="36"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B167" s="13"/>
-      <c r="C167" s="48"/>
-      <c r="D167" s="49"/>
-      <c r="E167" s="49"/>
-      <c r="F167" s="49"/>
-      <c r="G167" s="49"/>
-      <c r="H167" s="50"/>
+      <c r="C167" s="34"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="35"/>
+      <c r="F167" s="35"/>
+      <c r="G167" s="35"/>
+      <c r="H167" s="36"/>
     </row>
     <row r="168" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B168" s="8"/>
@@ -3208,14 +3208,14 @@
       <c r="B169" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C169" s="40" t="s">
+      <c r="C169" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="D169" s="41"/>
-      <c r="E169" s="41"/>
-      <c r="F169" s="41"/>
-      <c r="G169" s="41"/>
-      <c r="H169" s="42"/>
+      <c r="D169" s="62"/>
+      <c r="E169" s="62"/>
+      <c r="F169" s="62"/>
+      <c r="G169" s="62"/>
+      <c r="H169" s="63"/>
     </row>
     <row r="170" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B170" s="17"/>
@@ -3260,94 +3260,94 @@
       <c r="B173" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C173" s="31" t="s">
+      <c r="C173" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D173" s="32"/>
-      <c r="E173" s="32"/>
-      <c r="F173" s="32"/>
-      <c r="G173" s="32"/>
-      <c r="H173" s="33"/>
+      <c r="D173" s="41"/>
+      <c r="E173" s="41"/>
+      <c r="F173" s="41"/>
+      <c r="G173" s="41"/>
+      <c r="H173" s="42"/>
     </row>
     <row r="174" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B174" s="8"/>
-      <c r="C174" s="37"/>
-      <c r="D174" s="38"/>
-      <c r="E174" s="38"/>
-      <c r="F174" s="38"/>
-      <c r="G174" s="38"/>
-      <c r="H174" s="39"/>
+      <c r="C174" s="44"/>
+      <c r="D174" s="45"/>
+      <c r="E174" s="45"/>
+      <c r="F174" s="45"/>
+      <c r="G174" s="45"/>
+      <c r="H174" s="46"/>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B175" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C175" s="31" t="s">
+      <c r="C175" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D175" s="32"/>
-      <c r="E175" s="32"/>
-      <c r="F175" s="32"/>
-      <c r="G175" s="32"/>
-      <c r="H175" s="33"/>
+      <c r="D175" s="41"/>
+      <c r="E175" s="41"/>
+      <c r="F175" s="41"/>
+      <c r="G175" s="41"/>
+      <c r="H175" s="42"/>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B176" s="13"/>
-      <c r="C176" s="34"/>
-      <c r="D176" s="35"/>
-      <c r="E176" s="35"/>
-      <c r="F176" s="35"/>
-      <c r="G176" s="35"/>
-      <c r="H176" s="36"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="32"/>
+      <c r="G176" s="32"/>
+      <c r="H176" s="43"/>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B177" s="13"/>
-      <c r="C177" s="34"/>
-      <c r="D177" s="35"/>
-      <c r="E177" s="35"/>
-      <c r="F177" s="35"/>
-      <c r="G177" s="35"/>
-      <c r="H177" s="36"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="32"/>
+      <c r="G177" s="32"/>
+      <c r="H177" s="43"/>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B178" s="13"/>
-      <c r="C178" s="34"/>
-      <c r="D178" s="35"/>
-      <c r="E178" s="35"/>
-      <c r="F178" s="35"/>
-      <c r="G178" s="35"/>
-      <c r="H178" s="36"/>
+      <c r="C178" s="31"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="32"/>
+      <c r="F178" s="32"/>
+      <c r="G178" s="32"/>
+      <c r="H178" s="43"/>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B179" s="13"/>
-      <c r="C179" s="34"/>
-      <c r="D179" s="35"/>
-      <c r="E179" s="35"/>
-      <c r="F179" s="35"/>
-      <c r="G179" s="35"/>
-      <c r="H179" s="36"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="32"/>
+      <c r="G179" s="32"/>
+      <c r="H179" s="43"/>
     </row>
     <row r="180" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B180" s="8"/>
-      <c r="C180" s="37"/>
-      <c r="D180" s="38"/>
-      <c r="E180" s="38"/>
-      <c r="F180" s="38"/>
-      <c r="G180" s="38"/>
-      <c r="H180" s="39"/>
+      <c r="C180" s="44"/>
+      <c r="D180" s="45"/>
+      <c r="E180" s="45"/>
+      <c r="F180" s="45"/>
+      <c r="G180" s="45"/>
+      <c r="H180" s="46"/>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B181" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="43" t="s">
+      <c r="C181" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D181" s="44"/>
-      <c r="E181" s="44"/>
-      <c r="F181" s="44"/>
-      <c r="G181" s="44"/>
-      <c r="H181" s="45"/>
+      <c r="D181" s="48"/>
+      <c r="E181" s="48"/>
+      <c r="F181" s="48"/>
+      <c r="G181" s="48"/>
+      <c r="H181" s="49"/>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B182" s="13"/>
@@ -3362,96 +3362,96 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B183" s="13"/>
-      <c r="C183" s="34" t="s">
+      <c r="C183" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D183" s="35"/>
-      <c r="E183" s="35"/>
-      <c r="F183" s="35"/>
-      <c r="G183" s="35"/>
-      <c r="H183" s="47"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="32"/>
+      <c r="G183" s="32"/>
+      <c r="H183" s="33"/>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B184" s="13"/>
-      <c r="C184" s="34"/>
-      <c r="D184" s="35"/>
-      <c r="E184" s="35"/>
-      <c r="F184" s="35"/>
-      <c r="G184" s="35"/>
-      <c r="H184" s="47"/>
+      <c r="C184" s="31"/>
+      <c r="D184" s="32"/>
+      <c r="E184" s="32"/>
+      <c r="F184" s="32"/>
+      <c r="G184" s="32"/>
+      <c r="H184" s="33"/>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B185" s="13"/>
-      <c r="C185" s="48" t="s">
+      <c r="C185" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D185" s="49"/>
-      <c r="E185" s="49"/>
-      <c r="F185" s="49"/>
-      <c r="G185" s="49"/>
-      <c r="H185" s="50"/>
+      <c r="D185" s="35"/>
+      <c r="E185" s="35"/>
+      <c r="F185" s="35"/>
+      <c r="G185" s="35"/>
+      <c r="H185" s="36"/>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B186" s="13"/>
-      <c r="C186" s="48"/>
-      <c r="D186" s="49"/>
-      <c r="E186" s="49"/>
-      <c r="F186" s="49"/>
-      <c r="G186" s="49"/>
-      <c r="H186" s="50"/>
+      <c r="C186" s="34"/>
+      <c r="D186" s="35"/>
+      <c r="E186" s="35"/>
+      <c r="F186" s="35"/>
+      <c r="G186" s="35"/>
+      <c r="H186" s="36"/>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B187" s="13"/>
-      <c r="C187" s="48" t="s">
+      <c r="C187" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D187" s="49"/>
-      <c r="E187" s="49"/>
-      <c r="F187" s="49"/>
-      <c r="G187" s="49"/>
-      <c r="H187" s="50"/>
+      <c r="D187" s="35"/>
+      <c r="E187" s="35"/>
+      <c r="F187" s="35"/>
+      <c r="G187" s="35"/>
+      <c r="H187" s="36"/>
     </row>
     <row r="188" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="13"/>
-      <c r="C188" s="48"/>
-      <c r="D188" s="49"/>
-      <c r="E188" s="49"/>
-      <c r="F188" s="49"/>
-      <c r="G188" s="49"/>
-      <c r="H188" s="50"/>
+      <c r="C188" s="34"/>
+      <c r="D188" s="35"/>
+      <c r="E188" s="35"/>
+      <c r="F188" s="35"/>
+      <c r="G188" s="35"/>
+      <c r="H188" s="36"/>
     </row>
     <row r="189" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="13"/>
-      <c r="C189" s="63" t="s">
+      <c r="C189" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D189" s="64"/>
-      <c r="E189" s="64"/>
-      <c r="F189" s="64"/>
-      <c r="G189" s="64"/>
-      <c r="H189" s="65"/>
+      <c r="D189" s="65"/>
+      <c r="E189" s="65"/>
+      <c r="F189" s="65"/>
+      <c r="G189" s="65"/>
+      <c r="H189" s="66"/>
     </row>
     <row r="190" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B190" s="8"/>
-      <c r="C190" s="60"/>
-      <c r="D190" s="61"/>
-      <c r="E190" s="61"/>
-      <c r="F190" s="61"/>
-      <c r="G190" s="61"/>
-      <c r="H190" s="62"/>
+      <c r="C190" s="56"/>
+      <c r="D190" s="57"/>
+      <c r="E190" s="57"/>
+      <c r="F190" s="57"/>
+      <c r="G190" s="57"/>
+      <c r="H190" s="58"/>
     </row>
     <row r="191" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B191" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C191" s="40" t="s">
+      <c r="C191" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="D191" s="41"/>
-      <c r="E191" s="41"/>
-      <c r="F191" s="41"/>
-      <c r="G191" s="41"/>
-      <c r="H191" s="42"/>
+      <c r="D191" s="62"/>
+      <c r="E191" s="62"/>
+      <c r="F191" s="62"/>
+      <c r="G191" s="62"/>
+      <c r="H191" s="63"/>
     </row>
     <row r="192" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B192" s="17"/>
@@ -3496,94 +3496,94 @@
       <c r="B195" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C195" s="31" t="s">
+      <c r="C195" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="D195" s="32"/>
-      <c r="E195" s="32"/>
-      <c r="F195" s="32"/>
-      <c r="G195" s="32"/>
-      <c r="H195" s="33"/>
+      <c r="D195" s="41"/>
+      <c r="E195" s="41"/>
+      <c r="F195" s="41"/>
+      <c r="G195" s="41"/>
+      <c r="H195" s="42"/>
     </row>
     <row r="196" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B196" s="8"/>
-      <c r="C196" s="37"/>
-      <c r="D196" s="38"/>
-      <c r="E196" s="38"/>
-      <c r="F196" s="38"/>
-      <c r="G196" s="38"/>
-      <c r="H196" s="39"/>
+      <c r="C196" s="44"/>
+      <c r="D196" s="45"/>
+      <c r="E196" s="45"/>
+      <c r="F196" s="45"/>
+      <c r="G196" s="45"/>
+      <c r="H196" s="46"/>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B197" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C197" s="31" t="s">
+      <c r="C197" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="D197" s="32"/>
-      <c r="E197" s="32"/>
-      <c r="F197" s="32"/>
-      <c r="G197" s="32"/>
-      <c r="H197" s="33"/>
+      <c r="D197" s="41"/>
+      <c r="E197" s="41"/>
+      <c r="F197" s="41"/>
+      <c r="G197" s="41"/>
+      <c r="H197" s="42"/>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B198" s="13"/>
-      <c r="C198" s="34"/>
-      <c r="D198" s="35"/>
-      <c r="E198" s="35"/>
-      <c r="F198" s="35"/>
-      <c r="G198" s="35"/>
-      <c r="H198" s="36"/>
+      <c r="C198" s="31"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
+      <c r="F198" s="32"/>
+      <c r="G198" s="32"/>
+      <c r="H198" s="43"/>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B199" s="13"/>
-      <c r="C199" s="34"/>
-      <c r="D199" s="35"/>
-      <c r="E199" s="35"/>
-      <c r="F199" s="35"/>
-      <c r="G199" s="35"/>
-      <c r="H199" s="36"/>
+      <c r="C199" s="31"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32"/>
+      <c r="F199" s="32"/>
+      <c r="G199" s="32"/>
+      <c r="H199" s="43"/>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B200" s="13"/>
-      <c r="C200" s="34"/>
-      <c r="D200" s="35"/>
-      <c r="E200" s="35"/>
-      <c r="F200" s="35"/>
-      <c r="G200" s="35"/>
-      <c r="H200" s="36"/>
+      <c r="C200" s="31"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="32"/>
+      <c r="F200" s="32"/>
+      <c r="G200" s="32"/>
+      <c r="H200" s="43"/>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B201" s="13"/>
-      <c r="C201" s="34"/>
-      <c r="D201" s="35"/>
-      <c r="E201" s="35"/>
-      <c r="F201" s="35"/>
-      <c r="G201" s="35"/>
-      <c r="H201" s="36"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="32"/>
+      <c r="E201" s="32"/>
+      <c r="F201" s="32"/>
+      <c r="G201" s="32"/>
+      <c r="H201" s="43"/>
     </row>
     <row r="202" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B202" s="8"/>
-      <c r="C202" s="37"/>
-      <c r="D202" s="38"/>
-      <c r="E202" s="38"/>
-      <c r="F202" s="38"/>
-      <c r="G202" s="38"/>
-      <c r="H202" s="39"/>
+      <c r="C202" s="44"/>
+      <c r="D202" s="45"/>
+      <c r="E202" s="45"/>
+      <c r="F202" s="45"/>
+      <c r="G202" s="45"/>
+      <c r="H202" s="46"/>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B203" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C203" s="43" t="s">
+      <c r="C203" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="D203" s="44"/>
-      <c r="E203" s="44"/>
-      <c r="F203" s="44"/>
-      <c r="G203" s="44"/>
-      <c r="H203" s="45"/>
+      <c r="D203" s="48"/>
+      <c r="E203" s="48"/>
+      <c r="F203" s="48"/>
+      <c r="G203" s="48"/>
+      <c r="H203" s="49"/>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B204" s="13"/>
@@ -3598,60 +3598,60 @@
     </row>
     <row r="205" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="13"/>
-      <c r="C205" s="34" t="s">
+      <c r="C205" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D205" s="35"/>
-      <c r="E205" s="35"/>
-      <c r="F205" s="35"/>
-      <c r="G205" s="35"/>
-      <c r="H205" s="47"/>
+      <c r="D205" s="32"/>
+      <c r="E205" s="32"/>
+      <c r="F205" s="32"/>
+      <c r="G205" s="32"/>
+      <c r="H205" s="33"/>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B206" s="13"/>
-      <c r="C206" s="34" t="s">
+      <c r="C206" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D206" s="35"/>
-      <c r="E206" s="35"/>
-      <c r="F206" s="35"/>
-      <c r="G206" s="35"/>
-      <c r="H206" s="47"/>
+      <c r="D206" s="32"/>
+      <c r="E206" s="32"/>
+      <c r="F206" s="32"/>
+      <c r="G206" s="32"/>
+      <c r="H206" s="33"/>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B207" s="13"/>
-      <c r="C207" s="48" t="s">
+      <c r="C207" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D207" s="49"/>
-      <c r="E207" s="49"/>
-      <c r="F207" s="49"/>
-      <c r="G207" s="49"/>
-      <c r="H207" s="50"/>
+      <c r="D207" s="35"/>
+      <c r="E207" s="35"/>
+      <c r="F207" s="35"/>
+      <c r="G207" s="35"/>
+      <c r="H207" s="36"/>
     </row>
     <row r="208" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B208" s="8"/>
-      <c r="C208" s="48" t="s">
+      <c r="C208" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="D208" s="49"/>
-      <c r="E208" s="49"/>
-      <c r="F208" s="49"/>
-      <c r="G208" s="49"/>
-      <c r="H208" s="50"/>
+      <c r="D208" s="35"/>
+      <c r="E208" s="35"/>
+      <c r="F208" s="35"/>
+      <c r="G208" s="35"/>
+      <c r="H208" s="36"/>
     </row>
     <row r="209" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B209" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C209" s="40" t="s">
+      <c r="C209" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D209" s="41"/>
-      <c r="E209" s="41"/>
-      <c r="F209" s="41"/>
-      <c r="G209" s="41"/>
-      <c r="H209" s="42"/>
+      <c r="D209" s="62"/>
+      <c r="E209" s="62"/>
+      <c r="F209" s="62"/>
+      <c r="G209" s="62"/>
+      <c r="H209" s="63"/>
     </row>
     <row r="210" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B210" s="17"/>
@@ -3672,12 +3672,12 @@
       <c r="D211" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E211" s="57" t="s">
+      <c r="E211" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="F211" s="58"/>
-      <c r="G211" s="58"/>
-      <c r="H211" s="59"/>
+      <c r="F211" s="54"/>
+      <c r="G211" s="54"/>
+      <c r="H211" s="55"/>
     </row>
     <row r="212" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B212" s="8" t="s">
@@ -3687,202 +3687,202 @@
         <v>123</v>
       </c>
       <c r="D212" s="10"/>
-      <c r="E212" s="60"/>
-      <c r="F212" s="61"/>
-      <c r="G212" s="61"/>
-      <c r="H212" s="62"/>
+      <c r="E212" s="56"/>
+      <c r="F212" s="57"/>
+      <c r="G212" s="57"/>
+      <c r="H212" s="58"/>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B213" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C213" s="31" t="s">
+      <c r="C213" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D213" s="32"/>
-      <c r="E213" s="32"/>
-      <c r="F213" s="32"/>
-      <c r="G213" s="32"/>
-      <c r="H213" s="33"/>
+      <c r="D213" s="41"/>
+      <c r="E213" s="41"/>
+      <c r="F213" s="41"/>
+      <c r="G213" s="41"/>
+      <c r="H213" s="42"/>
     </row>
     <row r="214" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B214" s="8"/>
-      <c r="C214" s="37"/>
-      <c r="D214" s="38"/>
-      <c r="E214" s="38"/>
-      <c r="F214" s="38"/>
-      <c r="G214" s="38"/>
-      <c r="H214" s="39"/>
+      <c r="C214" s="44"/>
+      <c r="D214" s="45"/>
+      <c r="E214" s="45"/>
+      <c r="F214" s="45"/>
+      <c r="G214" s="45"/>
+      <c r="H214" s="46"/>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B215" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C215" s="31" t="s">
+      <c r="C215" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="D215" s="32"/>
-      <c r="E215" s="32"/>
-      <c r="F215" s="32"/>
-      <c r="G215" s="32"/>
-      <c r="H215" s="33"/>
+      <c r="D215" s="41"/>
+      <c r="E215" s="41"/>
+      <c r="F215" s="41"/>
+      <c r="G215" s="41"/>
+      <c r="H215" s="42"/>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B216" s="13"/>
-      <c r="C216" s="34"/>
-      <c r="D216" s="35"/>
-      <c r="E216" s="35"/>
-      <c r="F216" s="35"/>
-      <c r="G216" s="35"/>
-      <c r="H216" s="36"/>
+      <c r="C216" s="31"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="32"/>
+      <c r="F216" s="32"/>
+      <c r="G216" s="32"/>
+      <c r="H216" s="43"/>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B217" s="13"/>
-      <c r="C217" s="34"/>
-      <c r="D217" s="35"/>
-      <c r="E217" s="35"/>
-      <c r="F217" s="35"/>
-      <c r="G217" s="35"/>
-      <c r="H217" s="36"/>
+      <c r="C217" s="31"/>
+      <c r="D217" s="32"/>
+      <c r="E217" s="32"/>
+      <c r="F217" s="32"/>
+      <c r="G217" s="32"/>
+      <c r="H217" s="43"/>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B218" s="13"/>
-      <c r="C218" s="34"/>
-      <c r="D218" s="35"/>
-      <c r="E218" s="35"/>
-      <c r="F218" s="35"/>
-      <c r="G218" s="35"/>
-      <c r="H218" s="36"/>
+      <c r="C218" s="31"/>
+      <c r="D218" s="32"/>
+      <c r="E218" s="32"/>
+      <c r="F218" s="32"/>
+      <c r="G218" s="32"/>
+      <c r="H218" s="43"/>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B219" s="13"/>
-      <c r="C219" s="34"/>
-      <c r="D219" s="35"/>
-      <c r="E219" s="35"/>
-      <c r="F219" s="35"/>
-      <c r="G219" s="35"/>
-      <c r="H219" s="36"/>
+      <c r="C219" s="31"/>
+      <c r="D219" s="32"/>
+      <c r="E219" s="32"/>
+      <c r="F219" s="32"/>
+      <c r="G219" s="32"/>
+      <c r="H219" s="43"/>
     </row>
     <row r="220" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B220" s="8"/>
-      <c r="C220" s="37"/>
-      <c r="D220" s="38"/>
-      <c r="E220" s="38"/>
-      <c r="F220" s="38"/>
-      <c r="G220" s="38"/>
-      <c r="H220" s="39"/>
+      <c r="C220" s="44"/>
+      <c r="D220" s="45"/>
+      <c r="E220" s="45"/>
+      <c r="F220" s="45"/>
+      <c r="G220" s="45"/>
+      <c r="H220" s="46"/>
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B221" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C221" s="43" t="s">
+      <c r="C221" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="D221" s="44"/>
-      <c r="E221" s="44"/>
-      <c r="F221" s="44"/>
-      <c r="G221" s="44"/>
-      <c r="H221" s="45"/>
+      <c r="D221" s="48"/>
+      <c r="E221" s="48"/>
+      <c r="F221" s="48"/>
+      <c r="G221" s="48"/>
+      <c r="H221" s="49"/>
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B222" s="13"/>
-      <c r="C222" s="34" t="s">
+      <c r="C222" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D222" s="35"/>
-      <c r="E222" s="35"/>
-      <c r="F222" s="35"/>
-      <c r="G222" s="35"/>
-      <c r="H222" s="47"/>
+      <c r="D222" s="32"/>
+      <c r="E222" s="32"/>
+      <c r="F222" s="32"/>
+      <c r="G222" s="32"/>
+      <c r="H222" s="33"/>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B223" s="13"/>
-      <c r="C223" s="34"/>
-      <c r="D223" s="35"/>
-      <c r="E223" s="35"/>
-      <c r="F223" s="35"/>
-      <c r="G223" s="35"/>
-      <c r="H223" s="47"/>
+      <c r="C223" s="31"/>
+      <c r="D223" s="32"/>
+      <c r="E223" s="32"/>
+      <c r="F223" s="32"/>
+      <c r="G223" s="32"/>
+      <c r="H223" s="33"/>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B224" s="13"/>
-      <c r="C224" s="34" t="s">
+      <c r="C224" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D224" s="35"/>
-      <c r="E224" s="35"/>
-      <c r="F224" s="35"/>
-      <c r="G224" s="35"/>
-      <c r="H224" s="47"/>
+      <c r="D224" s="32"/>
+      <c r="E224" s="32"/>
+      <c r="F224" s="32"/>
+      <c r="G224" s="32"/>
+      <c r="H224" s="33"/>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B225" s="13"/>
-      <c r="C225" s="48" t="s">
+      <c r="C225" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="D225" s="49"/>
-      <c r="E225" s="49"/>
-      <c r="F225" s="49"/>
-      <c r="G225" s="49"/>
-      <c r="H225" s="50"/>
+      <c r="D225" s="35"/>
+      <c r="E225" s="35"/>
+      <c r="F225" s="35"/>
+      <c r="G225" s="35"/>
+      <c r="H225" s="36"/>
     </row>
     <row r="226" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="13"/>
-      <c r="C226" s="48"/>
-      <c r="D226" s="49"/>
-      <c r="E226" s="49"/>
-      <c r="F226" s="49"/>
-      <c r="G226" s="49"/>
-      <c r="H226" s="50"/>
+      <c r="C226" s="34"/>
+      <c r="D226" s="35"/>
+      <c r="E226" s="35"/>
+      <c r="F226" s="35"/>
+      <c r="G226" s="35"/>
+      <c r="H226" s="36"/>
       <c r="I226" s="3"/>
     </row>
     <row r="227" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="13"/>
-      <c r="C227" s="48" t="s">
+      <c r="C227" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D227" s="49"/>
-      <c r="E227" s="49"/>
-      <c r="F227" s="49"/>
-      <c r="G227" s="49"/>
-      <c r="H227" s="50"/>
+      <c r="D227" s="35"/>
+      <c r="E227" s="35"/>
+      <c r="F227" s="35"/>
+      <c r="G227" s="35"/>
+      <c r="H227" s="36"/>
       <c r="I227" s="3"/>
     </row>
     <row r="228" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="13"/>
-      <c r="C228" s="48"/>
-      <c r="D228" s="49"/>
-      <c r="E228" s="49"/>
-      <c r="F228" s="49"/>
-      <c r="G228" s="49"/>
-      <c r="H228" s="50"/>
+      <c r="C228" s="34"/>
+      <c r="D228" s="35"/>
+      <c r="E228" s="35"/>
+      <c r="F228" s="35"/>
+      <c r="G228" s="35"/>
+      <c r="H228" s="36"/>
       <c r="I228" s="3"/>
     </row>
     <row r="229" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B229" s="8"/>
-      <c r="C229" s="48" t="s">
+      <c r="C229" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="D229" s="49"/>
-      <c r="E229" s="49"/>
-      <c r="F229" s="49"/>
-      <c r="G229" s="49"/>
-      <c r="H229" s="50"/>
+      <c r="D229" s="35"/>
+      <c r="E229" s="35"/>
+      <c r="F229" s="35"/>
+      <c r="G229" s="35"/>
+      <c r="H229" s="36"/>
       <c r="I229" s="3"/>
     </row>
     <row r="230" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B230" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C230" s="66" t="s">
+      <c r="C230" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="D230" s="67"/>
-      <c r="E230" s="67"/>
-      <c r="F230" s="67"/>
-      <c r="G230" s="67"/>
-      <c r="H230" s="68"/>
+      <c r="D230" s="38"/>
+      <c r="E230" s="38"/>
+      <c r="F230" s="38"/>
+      <c r="G230" s="38"/>
+      <c r="H230" s="39"/>
     </row>
     <row r="231" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B231" s="17"/>
@@ -3903,12 +3903,12 @@
       <c r="D232" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E232" s="57" t="s">
+      <c r="E232" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="F232" s="58"/>
-      <c r="G232" s="58"/>
-      <c r="H232" s="59"/>
+      <c r="F232" s="54"/>
+      <c r="G232" s="54"/>
+      <c r="H232" s="55"/>
     </row>
     <row r="233" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B233" s="8" t="s">
@@ -3918,178 +3918,178 @@
         <v>126</v>
       </c>
       <c r="D233" s="10"/>
-      <c r="E233" s="60"/>
-      <c r="F233" s="61"/>
-      <c r="G233" s="61"/>
-      <c r="H233" s="62"/>
+      <c r="E233" s="56"/>
+      <c r="F233" s="57"/>
+      <c r="G233" s="57"/>
+      <c r="H233" s="58"/>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B234" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C234" s="31" t="s">
+      <c r="C234" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D234" s="32"/>
-      <c r="E234" s="32"/>
-      <c r="F234" s="32"/>
-      <c r="G234" s="32"/>
-      <c r="H234" s="33"/>
+      <c r="D234" s="41"/>
+      <c r="E234" s="41"/>
+      <c r="F234" s="41"/>
+      <c r="G234" s="41"/>
+      <c r="H234" s="42"/>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B235" s="13"/>
-      <c r="C235" s="34"/>
-      <c r="D235" s="35"/>
-      <c r="E235" s="35"/>
-      <c r="F235" s="35"/>
-      <c r="G235" s="35"/>
-      <c r="H235" s="36"/>
+      <c r="C235" s="31"/>
+      <c r="D235" s="32"/>
+      <c r="E235" s="32"/>
+      <c r="F235" s="32"/>
+      <c r="G235" s="32"/>
+      <c r="H235" s="43"/>
     </row>
     <row r="236" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B236" s="8"/>
-      <c r="C236" s="37"/>
-      <c r="D236" s="38"/>
-      <c r="E236" s="38"/>
-      <c r="F236" s="38"/>
-      <c r="G236" s="38"/>
-      <c r="H236" s="39"/>
+      <c r="C236" s="44"/>
+      <c r="D236" s="45"/>
+      <c r="E236" s="45"/>
+      <c r="F236" s="45"/>
+      <c r="G236" s="45"/>
+      <c r="H236" s="46"/>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B237" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C237" s="31" t="s">
+      <c r="C237" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="D237" s="32"/>
-      <c r="E237" s="32"/>
-      <c r="F237" s="32"/>
-      <c r="G237" s="32"/>
-      <c r="H237" s="33"/>
+      <c r="D237" s="41"/>
+      <c r="E237" s="41"/>
+      <c r="F237" s="41"/>
+      <c r="G237" s="41"/>
+      <c r="H237" s="42"/>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B238" s="13"/>
-      <c r="C238" s="34"/>
-      <c r="D238" s="35"/>
-      <c r="E238" s="35"/>
-      <c r="F238" s="35"/>
-      <c r="G238" s="35"/>
-      <c r="H238" s="36"/>
+      <c r="C238" s="31"/>
+      <c r="D238" s="32"/>
+      <c r="E238" s="32"/>
+      <c r="F238" s="32"/>
+      <c r="G238" s="32"/>
+      <c r="H238" s="43"/>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B239" s="13"/>
-      <c r="C239" s="34"/>
-      <c r="D239" s="35"/>
-      <c r="E239" s="35"/>
-      <c r="F239" s="35"/>
-      <c r="G239" s="35"/>
-      <c r="H239" s="36"/>
+      <c r="C239" s="31"/>
+      <c r="D239" s="32"/>
+      <c r="E239" s="32"/>
+      <c r="F239" s="32"/>
+      <c r="G239" s="32"/>
+      <c r="H239" s="43"/>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B240" s="13"/>
-      <c r="C240" s="34"/>
-      <c r="D240" s="35"/>
-      <c r="E240" s="35"/>
-      <c r="F240" s="35"/>
-      <c r="G240" s="35"/>
-      <c r="H240" s="36"/>
+      <c r="C240" s="31"/>
+      <c r="D240" s="32"/>
+      <c r="E240" s="32"/>
+      <c r="F240" s="32"/>
+      <c r="G240" s="32"/>
+      <c r="H240" s="43"/>
     </row>
     <row r="241" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B241" s="8"/>
-      <c r="C241" s="37"/>
-      <c r="D241" s="38"/>
-      <c r="E241" s="38"/>
-      <c r="F241" s="38"/>
-      <c r="G241" s="38"/>
-      <c r="H241" s="39"/>
+      <c r="C241" s="44"/>
+      <c r="D241" s="45"/>
+      <c r="E241" s="45"/>
+      <c r="F241" s="45"/>
+      <c r="G241" s="45"/>
+      <c r="H241" s="46"/>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B242" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C242" s="43" t="s">
+      <c r="C242" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="D242" s="44"/>
-      <c r="E242" s="44"/>
-      <c r="F242" s="44"/>
-      <c r="G242" s="44"/>
-      <c r="H242" s="45"/>
+      <c r="D242" s="48"/>
+      <c r="E242" s="48"/>
+      <c r="F242" s="48"/>
+      <c r="G242" s="48"/>
+      <c r="H242" s="49"/>
     </row>
     <row r="243" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243" s="13"/>
-      <c r="C243" s="34" t="s">
+      <c r="C243" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D243" s="35"/>
-      <c r="E243" s="35"/>
-      <c r="F243" s="35"/>
-      <c r="G243" s="35"/>
-      <c r="H243" s="47"/>
+      <c r="D243" s="32"/>
+      <c r="E243" s="32"/>
+      <c r="F243" s="32"/>
+      <c r="G243" s="32"/>
+      <c r="H243" s="33"/>
     </row>
     <row r="244" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B244" s="13"/>
-      <c r="C244" s="34"/>
-      <c r="D244" s="35"/>
-      <c r="E244" s="35"/>
-      <c r="F244" s="35"/>
-      <c r="G244" s="35"/>
-      <c r="H244" s="47"/>
+      <c r="C244" s="31"/>
+      <c r="D244" s="32"/>
+      <c r="E244" s="32"/>
+      <c r="F244" s="32"/>
+      <c r="G244" s="32"/>
+      <c r="H244" s="33"/>
     </row>
     <row r="245" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245" s="13"/>
-      <c r="C245" s="34" t="s">
+      <c r="C245" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D245" s="35"/>
-      <c r="E245" s="35"/>
-      <c r="F245" s="35"/>
-      <c r="G245" s="35"/>
-      <c r="H245" s="47"/>
+      <c r="D245" s="32"/>
+      <c r="E245" s="32"/>
+      <c r="F245" s="32"/>
+      <c r="G245" s="32"/>
+      <c r="H245" s="33"/>
     </row>
     <row r="246" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246" s="13"/>
-      <c r="C246" s="48" t="s">
+      <c r="C246" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="D246" s="49"/>
-      <c r="E246" s="49"/>
-      <c r="F246" s="49"/>
-      <c r="G246" s="49"/>
-      <c r="H246" s="50"/>
+      <c r="D246" s="35"/>
+      <c r="E246" s="35"/>
+      <c r="F246" s="35"/>
+      <c r="G246" s="35"/>
+      <c r="H246" s="36"/>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B247" s="13"/>
-      <c r="C247" s="48"/>
-      <c r="D247" s="49"/>
-      <c r="E247" s="49"/>
-      <c r="F247" s="49"/>
-      <c r="G247" s="49"/>
-      <c r="H247" s="50"/>
+      <c r="C247" s="34"/>
+      <c r="D247" s="35"/>
+      <c r="E247" s="35"/>
+      <c r="F247" s="35"/>
+      <c r="G247" s="35"/>
+      <c r="H247" s="36"/>
     </row>
     <row r="248" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B248" s="8"/>
-      <c r="C248" s="48" t="s">
+      <c r="C248" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="D248" s="49"/>
-      <c r="E248" s="49"/>
-      <c r="F248" s="49"/>
-      <c r="G248" s="49"/>
-      <c r="H248" s="50"/>
+      <c r="D248" s="35"/>
+      <c r="E248" s="35"/>
+      <c r="F248" s="35"/>
+      <c r="G248" s="35"/>
+      <c r="H248" s="36"/>
     </row>
     <row r="249" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B249" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C249" s="66" t="s">
+      <c r="C249" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="D249" s="67"/>
-      <c r="E249" s="67"/>
-      <c r="F249" s="67"/>
-      <c r="G249" s="67"/>
-      <c r="H249" s="68"/>
+      <c r="D249" s="38"/>
+      <c r="E249" s="38"/>
+      <c r="F249" s="38"/>
+      <c r="G249" s="38"/>
+      <c r="H249" s="39"/>
     </row>
     <row r="250" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B250" s="17"/>
@@ -4110,12 +4110,12 @@
       <c r="D251" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E251" s="57" t="s">
+      <c r="E251" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="F251" s="58"/>
-      <c r="G251" s="58"/>
-      <c r="H251" s="59"/>
+      <c r="F251" s="54"/>
+      <c r="G251" s="54"/>
+      <c r="H251" s="55"/>
     </row>
     <row r="252" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B252" s="8" t="s">
@@ -4125,125 +4125,125 @@
         <v>128</v>
       </c>
       <c r="D252" s="10"/>
-      <c r="E252" s="60"/>
-      <c r="F252" s="61"/>
-      <c r="G252" s="61"/>
-      <c r="H252" s="62"/>
+      <c r="E252" s="56"/>
+      <c r="F252" s="57"/>
+      <c r="G252" s="57"/>
+      <c r="H252" s="58"/>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B253" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C253" s="31" t="s">
+      <c r="C253" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="D253" s="32"/>
-      <c r="E253" s="32"/>
-      <c r="F253" s="32"/>
-      <c r="G253" s="32"/>
-      <c r="H253" s="33"/>
+      <c r="D253" s="41"/>
+      <c r="E253" s="41"/>
+      <c r="F253" s="41"/>
+      <c r="G253" s="41"/>
+      <c r="H253" s="42"/>
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B254" s="13"/>
-      <c r="C254" s="34"/>
-      <c r="D254" s="35"/>
-      <c r="E254" s="35"/>
-      <c r="F254" s="35"/>
-      <c r="G254" s="35"/>
-      <c r="H254" s="36"/>
+      <c r="C254" s="31"/>
+      <c r="D254" s="32"/>
+      <c r="E254" s="32"/>
+      <c r="F254" s="32"/>
+      <c r="G254" s="32"/>
+      <c r="H254" s="43"/>
     </row>
     <row r="255" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B255" s="8"/>
-      <c r="C255" s="37"/>
-      <c r="D255" s="38"/>
-      <c r="E255" s="38"/>
-      <c r="F255" s="38"/>
-      <c r="G255" s="38"/>
-      <c r="H255" s="39"/>
+      <c r="C255" s="44"/>
+      <c r="D255" s="45"/>
+      <c r="E255" s="45"/>
+      <c r="F255" s="45"/>
+      <c r="G255" s="45"/>
+      <c r="H255" s="46"/>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B256" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C256" s="31" t="s">
+      <c r="C256" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="D256" s="32"/>
-      <c r="E256" s="32"/>
-      <c r="F256" s="32"/>
-      <c r="G256" s="32"/>
-      <c r="H256" s="33"/>
+      <c r="D256" s="41"/>
+      <c r="E256" s="41"/>
+      <c r="F256" s="41"/>
+      <c r="G256" s="41"/>
+      <c r="H256" s="42"/>
     </row>
     <row r="257" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B257" s="8"/>
-      <c r="C257" s="37"/>
-      <c r="D257" s="38"/>
-      <c r="E257" s="38"/>
-      <c r="F257" s="38"/>
-      <c r="G257" s="38"/>
-      <c r="H257" s="39"/>
+      <c r="C257" s="44"/>
+      <c r="D257" s="45"/>
+      <c r="E257" s="45"/>
+      <c r="F257" s="45"/>
+      <c r="G257" s="45"/>
+      <c r="H257" s="46"/>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B258" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C258" s="31" t="s">
+      <c r="C258" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="D258" s="32"/>
-      <c r="E258" s="32"/>
-      <c r="F258" s="32"/>
-      <c r="G258" s="32"/>
-      <c r="H258" s="46"/>
+      <c r="D258" s="41"/>
+      <c r="E258" s="41"/>
+      <c r="F258" s="41"/>
+      <c r="G258" s="41"/>
+      <c r="H258" s="59"/>
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B259" s="13"/>
-      <c r="C259" s="34"/>
-      <c r="D259" s="35"/>
-      <c r="E259" s="35"/>
-      <c r="F259" s="35"/>
-      <c r="G259" s="35"/>
-      <c r="H259" s="47"/>
+      <c r="C259" s="31"/>
+      <c r="D259" s="32"/>
+      <c r="E259" s="32"/>
+      <c r="F259" s="32"/>
+      <c r="G259" s="32"/>
+      <c r="H259" s="33"/>
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B260" s="13"/>
-      <c r="C260" s="34"/>
-      <c r="D260" s="35"/>
-      <c r="E260" s="35"/>
-      <c r="F260" s="35"/>
-      <c r="G260" s="35"/>
-      <c r="H260" s="47"/>
+      <c r="C260" s="31"/>
+      <c r="D260" s="32"/>
+      <c r="E260" s="32"/>
+      <c r="F260" s="32"/>
+      <c r="G260" s="32"/>
+      <c r="H260" s="33"/>
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B261" s="13"/>
-      <c r="C261" s="34"/>
-      <c r="D261" s="35"/>
-      <c r="E261" s="35"/>
-      <c r="F261" s="35"/>
-      <c r="G261" s="35"/>
-      <c r="H261" s="47"/>
+      <c r="C261" s="31"/>
+      <c r="D261" s="32"/>
+      <c r="E261" s="32"/>
+      <c r="F261" s="32"/>
+      <c r="G261" s="32"/>
+      <c r="H261" s="33"/>
     </row>
     <row r="262" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B262" s="8"/>
-      <c r="C262" s="37"/>
-      <c r="D262" s="38"/>
-      <c r="E262" s="38"/>
-      <c r="F262" s="38"/>
-      <c r="G262" s="38"/>
-      <c r="H262" s="69"/>
+      <c r="C262" s="44"/>
+      <c r="D262" s="45"/>
+      <c r="E262" s="45"/>
+      <c r="F262" s="45"/>
+      <c r="G262" s="45"/>
+      <c r="H262" s="60"/>
     </row>
     <row r="263" spans="2:8" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B263" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C263" s="66" t="s">
+      <c r="C263" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="D263" s="67"/>
-      <c r="E263" s="67"/>
-      <c r="F263" s="67"/>
-      <c r="G263" s="67"/>
-      <c r="H263" s="68"/>
+      <c r="D263" s="38"/>
+      <c r="E263" s="38"/>
+      <c r="F263" s="38"/>
+      <c r="G263" s="38"/>
+      <c r="H263" s="39"/>
     </row>
     <row r="264" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B264" s="17"/>
@@ -4288,242 +4288,165 @@
       <c r="B267" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C267" s="31" t="s">
+      <c r="C267" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D267" s="32"/>
-      <c r="E267" s="32"/>
-      <c r="F267" s="32"/>
-      <c r="G267" s="32"/>
-      <c r="H267" s="33"/>
+      <c r="D267" s="41"/>
+      <c r="E267" s="41"/>
+      <c r="F267" s="41"/>
+      <c r="G267" s="41"/>
+      <c r="H267" s="42"/>
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B268" s="13"/>
-      <c r="C268" s="34"/>
-      <c r="D268" s="35"/>
-      <c r="E268" s="35"/>
-      <c r="F268" s="35"/>
-      <c r="G268" s="35"/>
-      <c r="H268" s="36"/>
+      <c r="C268" s="31"/>
+      <c r="D268" s="32"/>
+      <c r="E268" s="32"/>
+      <c r="F268" s="32"/>
+      <c r="G268" s="32"/>
+      <c r="H268" s="43"/>
     </row>
     <row r="269" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B269" s="8"/>
-      <c r="C269" s="37"/>
-      <c r="D269" s="38"/>
-      <c r="E269" s="38"/>
-      <c r="F269" s="38"/>
-      <c r="G269" s="38"/>
-      <c r="H269" s="39"/>
+      <c r="C269" s="44"/>
+      <c r="D269" s="45"/>
+      <c r="E269" s="45"/>
+      <c r="F269" s="45"/>
+      <c r="G269" s="45"/>
+      <c r="H269" s="46"/>
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B270" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C270" s="31" t="s">
+      <c r="C270" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="D270" s="32"/>
-      <c r="E270" s="32"/>
-      <c r="F270" s="32"/>
-      <c r="G270" s="32"/>
-      <c r="H270" s="33"/>
+      <c r="D270" s="41"/>
+      <c r="E270" s="41"/>
+      <c r="F270" s="41"/>
+      <c r="G270" s="41"/>
+      <c r="H270" s="42"/>
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B271" s="13"/>
-      <c r="C271" s="34"/>
-      <c r="D271" s="35"/>
-      <c r="E271" s="35"/>
-      <c r="F271" s="35"/>
-      <c r="G271" s="35"/>
-      <c r="H271" s="36"/>
+      <c r="C271" s="31"/>
+      <c r="D271" s="32"/>
+      <c r="E271" s="32"/>
+      <c r="F271" s="32"/>
+      <c r="G271" s="32"/>
+      <c r="H271" s="43"/>
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B272" s="13"/>
-      <c r="C272" s="34"/>
-      <c r="D272" s="35"/>
-      <c r="E272" s="35"/>
-      <c r="F272" s="35"/>
-      <c r="G272" s="35"/>
-      <c r="H272" s="36"/>
+      <c r="C272" s="31"/>
+      <c r="D272" s="32"/>
+      <c r="E272" s="32"/>
+      <c r="F272" s="32"/>
+      <c r="G272" s="32"/>
+      <c r="H272" s="43"/>
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B273" s="13"/>
-      <c r="C273" s="34"/>
-      <c r="D273" s="35"/>
-      <c r="E273" s="35"/>
-      <c r="F273" s="35"/>
-      <c r="G273" s="35"/>
-      <c r="H273" s="36"/>
+      <c r="C273" s="31"/>
+      <c r="D273" s="32"/>
+      <c r="E273" s="32"/>
+      <c r="F273" s="32"/>
+      <c r="G273" s="32"/>
+      <c r="H273" s="43"/>
     </row>
     <row r="274" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B274" s="8"/>
-      <c r="C274" s="37"/>
-      <c r="D274" s="38"/>
-      <c r="E274" s="38"/>
-      <c r="F274" s="38"/>
-      <c r="G274" s="38"/>
-      <c r="H274" s="39"/>
+      <c r="C274" s="44"/>
+      <c r="D274" s="45"/>
+      <c r="E274" s="45"/>
+      <c r="F274" s="45"/>
+      <c r="G274" s="45"/>
+      <c r="H274" s="46"/>
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B275" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C275" s="43" t="s">
+      <c r="C275" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D275" s="44"/>
-      <c r="E275" s="44"/>
-      <c r="F275" s="44"/>
-      <c r="G275" s="44"/>
-      <c r="H275" s="45"/>
+      <c r="D275" s="48"/>
+      <c r="E275" s="48"/>
+      <c r="F275" s="48"/>
+      <c r="G275" s="48"/>
+      <c r="H275" s="49"/>
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B276" s="13"/>
-      <c r="C276" s="70" t="s">
+      <c r="C276" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="D276" s="71"/>
-      <c r="E276" s="71"/>
-      <c r="F276" s="71"/>
-      <c r="G276" s="71"/>
-      <c r="H276" s="72"/>
+      <c r="D276" s="51"/>
+      <c r="E276" s="51"/>
+      <c r="F276" s="51"/>
+      <c r="G276" s="51"/>
+      <c r="H276" s="52"/>
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B277" s="13"/>
-      <c r="C277" s="34" t="s">
+      <c r="C277" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D277" s="35"/>
-      <c r="E277" s="35"/>
-      <c r="F277" s="35"/>
-      <c r="G277" s="35"/>
-      <c r="H277" s="47"/>
+      <c r="D277" s="32"/>
+      <c r="E277" s="32"/>
+      <c r="F277" s="32"/>
+      <c r="G277" s="32"/>
+      <c r="H277" s="33"/>
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B278" s="13"/>
-      <c r="C278" s="34" t="s">
+      <c r="C278" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="35"/>
-      <c r="E278" s="35"/>
-      <c r="F278" s="35"/>
-      <c r="G278" s="35"/>
-      <c r="H278" s="47"/>
+      <c r="D278" s="32"/>
+      <c r="E278" s="32"/>
+      <c r="F278" s="32"/>
+      <c r="G278" s="32"/>
+      <c r="H278" s="33"/>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B279" s="13"/>
-      <c r="C279" s="48" t="s">
+      <c r="C279" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D279" s="49"/>
-      <c r="E279" s="49"/>
-      <c r="F279" s="49"/>
-      <c r="G279" s="49"/>
-      <c r="H279" s="50"/>
+      <c r="D279" s="35"/>
+      <c r="E279" s="35"/>
+      <c r="F279" s="35"/>
+      <c r="G279" s="35"/>
+      <c r="H279" s="36"/>
     </row>
     <row r="280" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B280" s="8"/>
-      <c r="C280" s="48" t="s">
+      <c r="C280" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D280" s="49"/>
-      <c r="E280" s="49"/>
-      <c r="F280" s="49"/>
-      <c r="G280" s="49"/>
-      <c r="H280" s="50"/>
+      <c r="D280" s="35"/>
+      <c r="E280" s="35"/>
+      <c r="F280" s="35"/>
+      <c r="G280" s="35"/>
+      <c r="H280" s="36"/>
     </row>
     <row r="281" spans="2:8" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B281" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C281" s="66" t="s">
+      <c r="C281" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="D281" s="67"/>
-      <c r="E281" s="67"/>
-      <c r="F281" s="67"/>
-      <c r="G281" s="67"/>
-      <c r="H281" s="68"/>
+      <c r="D281" s="38"/>
+      <c r="E281" s="38"/>
+      <c r="F281" s="38"/>
+      <c r="G281" s="38"/>
+      <c r="H281" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="C277:H277"/>
-    <mergeCell ref="C278:H278"/>
-    <mergeCell ref="C279:H279"/>
-    <mergeCell ref="C280:H280"/>
-    <mergeCell ref="C281:H281"/>
-    <mergeCell ref="C263:H263"/>
-    <mergeCell ref="C267:H269"/>
-    <mergeCell ref="C270:H274"/>
-    <mergeCell ref="C275:H275"/>
-    <mergeCell ref="C276:H276"/>
-    <mergeCell ref="C249:H249"/>
-    <mergeCell ref="C253:H255"/>
-    <mergeCell ref="C256:H257"/>
-    <mergeCell ref="E251:H252"/>
-    <mergeCell ref="C258:H262"/>
-    <mergeCell ref="C242:H242"/>
-    <mergeCell ref="C248:H248"/>
-    <mergeCell ref="C224:H224"/>
-    <mergeCell ref="C230:H230"/>
-    <mergeCell ref="C234:H236"/>
-    <mergeCell ref="C237:H241"/>
-    <mergeCell ref="C222:H223"/>
-    <mergeCell ref="C225:H226"/>
-    <mergeCell ref="C227:H228"/>
-    <mergeCell ref="C229:H229"/>
-    <mergeCell ref="E232:H233"/>
-    <mergeCell ref="C243:H244"/>
-    <mergeCell ref="C245:H245"/>
-    <mergeCell ref="C246:H247"/>
-    <mergeCell ref="C215:H220"/>
-    <mergeCell ref="C221:H221"/>
-    <mergeCell ref="C209:H209"/>
-    <mergeCell ref="C205:H205"/>
-    <mergeCell ref="C206:H206"/>
-    <mergeCell ref="C213:H214"/>
-    <mergeCell ref="E211:H212"/>
-    <mergeCell ref="C203:H203"/>
-    <mergeCell ref="C207:H207"/>
-    <mergeCell ref="C208:H208"/>
-    <mergeCell ref="C187:H188"/>
-    <mergeCell ref="C191:H191"/>
-    <mergeCell ref="C189:H190"/>
-    <mergeCell ref="C195:H196"/>
-    <mergeCell ref="C197:H202"/>
-    <mergeCell ref="C173:H174"/>
-    <mergeCell ref="C175:H180"/>
-    <mergeCell ref="C181:H181"/>
-    <mergeCell ref="C183:H184"/>
-    <mergeCell ref="C185:H186"/>
-    <mergeCell ref="C153:H154"/>
-    <mergeCell ref="C155:H160"/>
-    <mergeCell ref="C161:H161"/>
-    <mergeCell ref="C169:H169"/>
-    <mergeCell ref="C163:H164"/>
-    <mergeCell ref="C166:H167"/>
-    <mergeCell ref="C165:H165"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C109:H111"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C122:H123"/>
-    <mergeCell ref="C86:H88"/>
-    <mergeCell ref="C89:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C106:H108"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C70:H74"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="C31:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H7"/>
     <mergeCell ref="C12:H12"/>
@@ -4548,6 +4471,83 @@
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="C68:H69"/>
     <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C70:H74"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="C31:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C109:H111"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C122:H123"/>
+    <mergeCell ref="C86:H88"/>
+    <mergeCell ref="C89:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C106:H108"/>
+    <mergeCell ref="C173:H174"/>
+    <mergeCell ref="C175:H180"/>
+    <mergeCell ref="C181:H181"/>
+    <mergeCell ref="C183:H184"/>
+    <mergeCell ref="C185:H186"/>
+    <mergeCell ref="C153:H154"/>
+    <mergeCell ref="C155:H160"/>
+    <mergeCell ref="C161:H161"/>
+    <mergeCell ref="C169:H169"/>
+    <mergeCell ref="C163:H164"/>
+    <mergeCell ref="C166:H167"/>
+    <mergeCell ref="C165:H165"/>
+    <mergeCell ref="C209:H209"/>
+    <mergeCell ref="C205:H205"/>
+    <mergeCell ref="C206:H206"/>
+    <mergeCell ref="C213:H214"/>
+    <mergeCell ref="E211:H212"/>
+    <mergeCell ref="C203:H203"/>
+    <mergeCell ref="C207:H207"/>
+    <mergeCell ref="C208:H208"/>
+    <mergeCell ref="C187:H188"/>
+    <mergeCell ref="C191:H191"/>
+    <mergeCell ref="C189:H190"/>
+    <mergeCell ref="C195:H196"/>
+    <mergeCell ref="C197:H202"/>
+    <mergeCell ref="C222:H223"/>
+    <mergeCell ref="C225:H226"/>
+    <mergeCell ref="C227:H228"/>
+    <mergeCell ref="C229:H229"/>
+    <mergeCell ref="E232:H233"/>
+    <mergeCell ref="C243:H244"/>
+    <mergeCell ref="C245:H245"/>
+    <mergeCell ref="C246:H247"/>
+    <mergeCell ref="C215:H220"/>
+    <mergeCell ref="C221:H221"/>
+    <mergeCell ref="C249:H249"/>
+    <mergeCell ref="C253:H255"/>
+    <mergeCell ref="C256:H257"/>
+    <mergeCell ref="E251:H252"/>
+    <mergeCell ref="C258:H262"/>
+    <mergeCell ref="C242:H242"/>
+    <mergeCell ref="C248:H248"/>
+    <mergeCell ref="C224:H224"/>
+    <mergeCell ref="C230:H230"/>
+    <mergeCell ref="C234:H236"/>
+    <mergeCell ref="C237:H241"/>
+    <mergeCell ref="C277:H277"/>
+    <mergeCell ref="C278:H278"/>
+    <mergeCell ref="C279:H279"/>
+    <mergeCell ref="C280:H280"/>
+    <mergeCell ref="C281:H281"/>
+    <mergeCell ref="C263:H263"/>
+    <mergeCell ref="C267:H269"/>
+    <mergeCell ref="C270:H274"/>
+    <mergeCell ref="C275:H275"/>
+    <mergeCell ref="C276:H276"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
